--- a/Excels/FundTransfer.xlsx
+++ b/Excels/FundTransfer.xlsx
@@ -19,30 +19,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>payerAccount</t>
-  </si>
-  <si>
-    <t>payeeAccount</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>ghi</t>
-  </si>
-  <si>
-    <t>klm</t>
-  </si>
-  <si>
     <t>amount</t>
+  </si>
+  <si>
+    <t>customerID</t>
+  </si>
+  <si>
+    <t>accountType</t>
+  </si>
+  <si>
+    <t>iniDeposit</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>minimumValue</t>
+  </si>
+  <si>
+    <t>numOfTransaction</t>
+  </si>
+  <si>
+    <t>aas</t>
   </si>
 </sst>
 </file>
@@ -78,8 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,87 +371,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>84897</v>
-      </c>
-      <c r="B2">
-        <v>84898</v>
-      </c>
-      <c r="C2">
+        <v>58876</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E2">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>84897</v>
-      </c>
-      <c r="B3">
-        <v>84898</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>84897</v>
-      </c>
-      <c r="B4">
-        <v>84898</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10042020</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10102020</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>84897</v>
-      </c>
-      <c r="B5">
-        <v>84898</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
